--- a/historias de usuario.xlsx
+++ b/historias de usuario.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\practica\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose-\OneDrive\Documentos\GitHub\PSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8CBC105E-E286-402B-A56F-7A5619054E3D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Como manager, quiero poder visualizar los artistas con más popularidad, para contactar con ellos</t>
   </si>
@@ -222,12 +223,21 @@
   </si>
   <si>
     <t>Como promotor artistico, quiero tener una forma de contactar con los artistas, para contratarlos para mis eventos</t>
+  </si>
+  <si>
+    <t>Estimación</t>
+  </si>
+  <si>
+    <t>60 minutos</t>
+  </si>
+  <si>
+    <t>24 puntos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,11 +551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +563,7 @@
     <col min="3" max="3" width="161.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -563,8 +573,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -574,8 +587,17 @@
       <c r="C2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>99</v>
       </c>
@@ -585,8 +607,11 @@
       <c r="C3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>98</v>
       </c>
@@ -596,8 +621,11 @@
       <c r="C4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>97</v>
       </c>
@@ -607,8 +635,11 @@
       <c r="C5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>96</v>
       </c>
@@ -618,8 +649,11 @@
       <c r="C6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>95</v>
       </c>
@@ -629,8 +663,11 @@
       <c r="C7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>94</v>
       </c>
@@ -640,8 +677,11 @@
       <c r="C8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>93</v>
       </c>
@@ -651,8 +691,11 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>92</v>
       </c>
@@ -662,8 +705,11 @@
       <c r="C10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>91</v>
       </c>
@@ -673,8 +719,11 @@
       <c r="C11" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>90</v>
       </c>
@@ -684,8 +733,11 @@
       <c r="C12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>89</v>
       </c>
@@ -695,8 +747,11 @@
       <c r="C13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>88</v>
       </c>
@@ -706,8 +761,11 @@
       <c r="C14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>87</v>
       </c>
@@ -717,8 +775,11 @@
       <c r="C15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>86</v>
       </c>
@@ -728,8 +789,11 @@
       <c r="C16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>85</v>
       </c>
@@ -739,8 +803,11 @@
       <c r="C17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>84</v>
       </c>
@@ -750,8 +817,11 @@
       <c r="C18" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>83</v>
       </c>
@@ -761,8 +831,11 @@
       <c r="C19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>82</v>
       </c>
@@ -772,8 +845,11 @@
       <c r="C20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>81</v>
       </c>
@@ -783,8 +859,11 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>80</v>
       </c>
@@ -794,8 +873,11 @@
       <c r="C22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>79</v>
       </c>
@@ -805,8 +887,11 @@
       <c r="C23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>78</v>
       </c>
@@ -816,8 +901,11 @@
       <c r="C24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>77</v>
       </c>
@@ -827,8 +915,11 @@
       <c r="C25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>76</v>
       </c>
@@ -838,8 +929,11 @@
       <c r="C26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>75</v>
       </c>
@@ -849,8 +943,11 @@
       <c r="C27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -858,7 +955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -866,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -874,7 +971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -882,7 +979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>36</v>
       </c>

--- a/historias de usuario.xlsx
+++ b/historias de usuario.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose-\OneDrive\Documentos\GitHub\PSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8CBC105E-E286-402B-A56F-7A5619054E3D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B29AD969-235D-46D7-BCAE-5B782C51A76C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Como manager, quiero poder visualizar los artistas con más popularidad, para contactar con ellos</t>
   </si>
@@ -232,13 +232,16 @@
   </si>
   <si>
     <t>24 puntos</t>
+  </si>
+  <si>
+    <t>Hecho:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,13 +249,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -264,16 +291,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,7 +588,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +617,7 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D2">
@@ -604,7 +637,7 @@
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D3">
@@ -618,7 +651,7 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D4">
@@ -632,7 +665,7 @@
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D5">
@@ -646,7 +679,7 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D6">
@@ -660,7 +693,7 @@
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D7">
@@ -674,7 +707,7 @@
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D8">
@@ -688,7 +721,7 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D9">
@@ -702,7 +735,7 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D10">
@@ -716,7 +749,7 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D11">
@@ -758,7 +791,7 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D14">
@@ -772,7 +805,7 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D15">
@@ -786,126 +819,126 @@
       <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>85</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>83</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>81</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>80</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>79</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>78</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>77</v>
       </c>
@@ -919,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>76</v>
       </c>
@@ -933,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>75</v>
       </c>
@@ -947,15 +980,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28">
+        <f>SUM(D2:D11,D14:D20)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -963,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>34</v>
       </c>
@@ -971,7 +1011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -979,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>36</v>
       </c>

--- a/historias de usuario.xlsx
+++ b/historias de usuario.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose-\OneDrive\Documentos\GitHub\PSG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\practica\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B29AD969-235D-46D7-BCAE-5B782C51A76C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>Como manager, quiero poder visualizar los artistas con más popularidad, para contactar con ellos</t>
   </si>
@@ -235,12 +234,18 @@
   </si>
   <si>
     <t>Hecho:</t>
+  </si>
+  <si>
+    <t>Como usuario, quiero que haya una pagina de inicio que muestre una vision general de la aplicación.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,11 +301,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
@@ -584,16 +586,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="161.7109375" customWidth="1"/>
+    <col min="3" max="3" width="149.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -609,419 +611,518 @@
       <c r="D1" t="s">
         <v>66</v>
       </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>100</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1.2</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>96</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>95</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>94</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="E8">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>93</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="E9">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>92</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>89</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>51</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>88</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>87</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
+      <c r="E15">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>86</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>85</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E18">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>83</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>82</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="E20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>81</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="E22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>79</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>78</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="E24">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>77</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>54</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>76</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>75</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>44</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
         <v>69</v>
       </c>
-      <c r="F28">
-        <f>SUM(D2:D11,D14:D20)</f>
+      <c r="F29">
+        <f>SUM(D3:D12,D15:D21)</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1029,7 +1130,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -1037,7 +1138,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -1045,19 +1146,27 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>60</v>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>61</v>
       </c>
     </row>

--- a/historias de usuario.xlsx
+++ b/historias de usuario.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose-\OneDrive\Documentos\GitHub\PSG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tomás\Documents\GitHub\PSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B29AD969-235D-46D7-BCAE-5B782C51A76C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>Como manager, quiero poder visualizar los artistas con más popularidad, para contactar con ellos</t>
   </si>
@@ -235,12 +234,15 @@
   </si>
   <si>
     <t>Hecho:</t>
+  </si>
+  <si>
+    <t>Como artista, quiero una página donde se vean todas mis obras, para los managers y los posibles compradores que entren en la página puedan fijarse en como trabajo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,11 +586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,8 +986,8 @@
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
+      <c r="C28" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>69</v>
